--- a/results/round1/results-ROUND1.xlsx
+++ b/results/round1/results-ROUND1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Third-Year-Project\Intruder-Aircraft-Detection\results\round1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10012315-2471-4443-BAB4-06F153221C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABBCCF-2E1A-4203-8275-717C04E376E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7681,14 +7681,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8047,7 +8047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S560" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S559" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA612" sqref="AA612:AA621"/>
     </sheetView>
   </sheetViews>
@@ -8087,17 +8087,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
@@ -8166,7 +8166,7 @@
       <c r="I4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="43" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22945,404 +22945,617 @@
     </row>
   </sheetData>
   <mergeCells count="1041">
-    <mergeCell ref="B602:B611"/>
-    <mergeCell ref="C602:C611"/>
-    <mergeCell ref="D602:D611"/>
-    <mergeCell ref="E602:E611"/>
-    <mergeCell ref="F602:F611"/>
-    <mergeCell ref="G602:G611"/>
-    <mergeCell ref="H602:H611"/>
-    <mergeCell ref="I602:I611"/>
-    <mergeCell ref="J602:J621"/>
-    <mergeCell ref="B612:B621"/>
-    <mergeCell ref="C612:C621"/>
-    <mergeCell ref="D612:D621"/>
-    <mergeCell ref="E612:E621"/>
-    <mergeCell ref="F612:F621"/>
-    <mergeCell ref="G612:G621"/>
-    <mergeCell ref="H612:H621"/>
-    <mergeCell ref="I612:I621"/>
-    <mergeCell ref="B582:B591"/>
-    <mergeCell ref="C582:C591"/>
-    <mergeCell ref="D582:D591"/>
-    <mergeCell ref="E582:E591"/>
-    <mergeCell ref="F582:F591"/>
-    <mergeCell ref="G582:G591"/>
-    <mergeCell ref="H582:H591"/>
-    <mergeCell ref="I582:I591"/>
-    <mergeCell ref="J582:J601"/>
-    <mergeCell ref="B592:B601"/>
-    <mergeCell ref="C592:C601"/>
-    <mergeCell ref="D592:D601"/>
-    <mergeCell ref="E592:E601"/>
-    <mergeCell ref="F592:F601"/>
-    <mergeCell ref="G592:G601"/>
-    <mergeCell ref="H592:H601"/>
-    <mergeCell ref="I592:I601"/>
-    <mergeCell ref="B560:J560"/>
-    <mergeCell ref="B562:B571"/>
-    <mergeCell ref="C562:C571"/>
-    <mergeCell ref="D562:D571"/>
-    <mergeCell ref="E562:E571"/>
-    <mergeCell ref="F562:F571"/>
-    <mergeCell ref="G562:G571"/>
-    <mergeCell ref="H562:H571"/>
-    <mergeCell ref="I562:I571"/>
-    <mergeCell ref="J562:J581"/>
-    <mergeCell ref="B572:B581"/>
-    <mergeCell ref="C572:C581"/>
-    <mergeCell ref="D572:D581"/>
-    <mergeCell ref="E572:E581"/>
-    <mergeCell ref="F572:F581"/>
-    <mergeCell ref="G572:G581"/>
-    <mergeCell ref="H572:H581"/>
-    <mergeCell ref="I572:I581"/>
-    <mergeCell ref="B540:B549"/>
-    <mergeCell ref="C540:C549"/>
-    <mergeCell ref="D540:D549"/>
-    <mergeCell ref="E540:E549"/>
-    <mergeCell ref="F540:F549"/>
-    <mergeCell ref="G540:G549"/>
-    <mergeCell ref="H540:H549"/>
-    <mergeCell ref="I540:I549"/>
-    <mergeCell ref="J540:J559"/>
-    <mergeCell ref="B550:B559"/>
-    <mergeCell ref="C550:C559"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="E550:E559"/>
-    <mergeCell ref="F550:F559"/>
-    <mergeCell ref="G550:G559"/>
-    <mergeCell ref="H550:H559"/>
-    <mergeCell ref="I550:I559"/>
-    <mergeCell ref="B520:B529"/>
-    <mergeCell ref="C520:C529"/>
-    <mergeCell ref="D520:D529"/>
-    <mergeCell ref="E520:E529"/>
-    <mergeCell ref="F520:F529"/>
-    <mergeCell ref="G520:G529"/>
-    <mergeCell ref="H520:H529"/>
-    <mergeCell ref="I520:I529"/>
-    <mergeCell ref="J520:J539"/>
-    <mergeCell ref="B530:B539"/>
-    <mergeCell ref="C530:C539"/>
-    <mergeCell ref="D530:D539"/>
-    <mergeCell ref="E530:E539"/>
-    <mergeCell ref="F530:F539"/>
-    <mergeCell ref="G530:G539"/>
-    <mergeCell ref="H530:H539"/>
-    <mergeCell ref="I530:I539"/>
-    <mergeCell ref="B498:J498"/>
-    <mergeCell ref="B500:B509"/>
-    <mergeCell ref="C500:C509"/>
-    <mergeCell ref="D500:D509"/>
-    <mergeCell ref="E500:E509"/>
-    <mergeCell ref="F500:F509"/>
-    <mergeCell ref="G500:G509"/>
-    <mergeCell ref="H500:H509"/>
-    <mergeCell ref="I500:I509"/>
-    <mergeCell ref="J500:J519"/>
-    <mergeCell ref="B510:B519"/>
-    <mergeCell ref="C510:C519"/>
-    <mergeCell ref="D510:D519"/>
-    <mergeCell ref="E510:E519"/>
-    <mergeCell ref="F510:F519"/>
-    <mergeCell ref="G510:G519"/>
-    <mergeCell ref="H510:H519"/>
-    <mergeCell ref="I510:I519"/>
-    <mergeCell ref="B478:B487"/>
-    <mergeCell ref="C478:C487"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="E478:E487"/>
-    <mergeCell ref="F478:F487"/>
-    <mergeCell ref="G478:G487"/>
-    <mergeCell ref="H478:H487"/>
-    <mergeCell ref="I478:I487"/>
-    <mergeCell ref="J478:J497"/>
-    <mergeCell ref="B488:B497"/>
-    <mergeCell ref="C488:C497"/>
-    <mergeCell ref="D488:D497"/>
-    <mergeCell ref="E488:E497"/>
-    <mergeCell ref="F488:F497"/>
-    <mergeCell ref="G488:G497"/>
-    <mergeCell ref="H488:H497"/>
-    <mergeCell ref="I488:I497"/>
-    <mergeCell ref="B458:B467"/>
-    <mergeCell ref="C458:C467"/>
-    <mergeCell ref="D458:D467"/>
-    <mergeCell ref="E458:E467"/>
-    <mergeCell ref="F458:F467"/>
-    <mergeCell ref="G458:G467"/>
-    <mergeCell ref="H458:H467"/>
-    <mergeCell ref="I458:I467"/>
-    <mergeCell ref="J458:J477"/>
-    <mergeCell ref="B468:B477"/>
-    <mergeCell ref="C468:C477"/>
-    <mergeCell ref="D468:D477"/>
-    <mergeCell ref="E468:E477"/>
-    <mergeCell ref="F468:F477"/>
-    <mergeCell ref="G468:G477"/>
-    <mergeCell ref="H468:H477"/>
-    <mergeCell ref="I468:I477"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B438:B447"/>
-    <mergeCell ref="C438:C447"/>
-    <mergeCell ref="D438:D447"/>
-    <mergeCell ref="E438:E447"/>
-    <mergeCell ref="F438:F447"/>
-    <mergeCell ref="G438:G447"/>
-    <mergeCell ref="H438:H447"/>
-    <mergeCell ref="I438:I447"/>
-    <mergeCell ref="J438:J457"/>
-    <mergeCell ref="B448:B457"/>
-    <mergeCell ref="C448:C457"/>
-    <mergeCell ref="D448:D457"/>
-    <mergeCell ref="E448:E457"/>
-    <mergeCell ref="F448:F457"/>
-    <mergeCell ref="G448:G457"/>
-    <mergeCell ref="H448:H457"/>
-    <mergeCell ref="I448:I457"/>
-    <mergeCell ref="B416:B425"/>
-    <mergeCell ref="C416:C425"/>
-    <mergeCell ref="D416:D425"/>
-    <mergeCell ref="E416:E425"/>
-    <mergeCell ref="F416:F425"/>
-    <mergeCell ref="G416:G425"/>
-    <mergeCell ref="H416:H425"/>
-    <mergeCell ref="I416:I425"/>
-    <mergeCell ref="J416:J435"/>
-    <mergeCell ref="B426:B435"/>
-    <mergeCell ref="C426:C435"/>
-    <mergeCell ref="D426:D435"/>
-    <mergeCell ref="E426:E435"/>
-    <mergeCell ref="F426:F435"/>
-    <mergeCell ref="G426:G435"/>
-    <mergeCell ref="H426:H435"/>
-    <mergeCell ref="I426:I435"/>
-    <mergeCell ref="B396:B405"/>
-    <mergeCell ref="C396:C405"/>
-    <mergeCell ref="D396:D405"/>
-    <mergeCell ref="E396:E405"/>
-    <mergeCell ref="F396:F405"/>
-    <mergeCell ref="G396:G405"/>
-    <mergeCell ref="H396:H405"/>
-    <mergeCell ref="I396:I405"/>
-    <mergeCell ref="J396:J415"/>
-    <mergeCell ref="B406:B415"/>
-    <mergeCell ref="C406:C415"/>
-    <mergeCell ref="D406:D415"/>
-    <mergeCell ref="E406:E415"/>
-    <mergeCell ref="F406:F415"/>
-    <mergeCell ref="G406:G415"/>
-    <mergeCell ref="H406:H415"/>
-    <mergeCell ref="I406:I415"/>
-    <mergeCell ref="B374:J374"/>
-    <mergeCell ref="B376:B385"/>
-    <mergeCell ref="C376:C385"/>
-    <mergeCell ref="D376:D385"/>
-    <mergeCell ref="E376:E385"/>
-    <mergeCell ref="F376:F385"/>
-    <mergeCell ref="G376:G385"/>
-    <mergeCell ref="H376:H385"/>
-    <mergeCell ref="I376:I385"/>
-    <mergeCell ref="J376:J395"/>
-    <mergeCell ref="B386:B395"/>
-    <mergeCell ref="C386:C395"/>
-    <mergeCell ref="D386:D395"/>
-    <mergeCell ref="E386:E395"/>
-    <mergeCell ref="F386:F395"/>
-    <mergeCell ref="G386:G395"/>
-    <mergeCell ref="H386:H395"/>
-    <mergeCell ref="I386:I395"/>
-    <mergeCell ref="B354:B363"/>
-    <mergeCell ref="C354:C363"/>
-    <mergeCell ref="D354:D363"/>
-    <mergeCell ref="E354:E363"/>
-    <mergeCell ref="F354:F363"/>
-    <mergeCell ref="G354:G363"/>
-    <mergeCell ref="H354:H363"/>
-    <mergeCell ref="I354:I363"/>
-    <mergeCell ref="J354:J373"/>
-    <mergeCell ref="B364:B373"/>
-    <mergeCell ref="C364:C373"/>
-    <mergeCell ref="D364:D373"/>
-    <mergeCell ref="E364:E373"/>
-    <mergeCell ref="F364:F373"/>
-    <mergeCell ref="G364:G373"/>
-    <mergeCell ref="H364:H373"/>
-    <mergeCell ref="I364:I373"/>
-    <mergeCell ref="B334:B343"/>
-    <mergeCell ref="C334:C343"/>
-    <mergeCell ref="D334:D343"/>
-    <mergeCell ref="E334:E343"/>
-    <mergeCell ref="F334:F343"/>
-    <mergeCell ref="G334:G343"/>
-    <mergeCell ref="H334:H343"/>
-    <mergeCell ref="I334:I343"/>
-    <mergeCell ref="J334:J353"/>
-    <mergeCell ref="B344:B353"/>
-    <mergeCell ref="C344:C353"/>
-    <mergeCell ref="D344:D353"/>
-    <mergeCell ref="E344:E353"/>
-    <mergeCell ref="F344:F353"/>
-    <mergeCell ref="G344:G353"/>
-    <mergeCell ref="H344:H353"/>
-    <mergeCell ref="I344:I353"/>
-    <mergeCell ref="B312:J312"/>
-    <mergeCell ref="B314:B323"/>
-    <mergeCell ref="C314:C323"/>
-    <mergeCell ref="D314:D323"/>
-    <mergeCell ref="E314:E323"/>
-    <mergeCell ref="F314:F323"/>
-    <mergeCell ref="G314:G323"/>
-    <mergeCell ref="H314:H323"/>
-    <mergeCell ref="I314:I323"/>
-    <mergeCell ref="J314:J333"/>
-    <mergeCell ref="B324:B333"/>
-    <mergeCell ref="C324:C333"/>
-    <mergeCell ref="D324:D333"/>
-    <mergeCell ref="E324:E333"/>
-    <mergeCell ref="F324:F333"/>
-    <mergeCell ref="G324:G333"/>
-    <mergeCell ref="H324:H333"/>
-    <mergeCell ref="I324:I333"/>
-    <mergeCell ref="B292:B301"/>
-    <mergeCell ref="C292:C301"/>
-    <mergeCell ref="D292:D301"/>
-    <mergeCell ref="E292:E301"/>
-    <mergeCell ref="F292:F301"/>
-    <mergeCell ref="G292:G301"/>
-    <mergeCell ref="H292:H301"/>
-    <mergeCell ref="I292:I301"/>
-    <mergeCell ref="J292:J311"/>
-    <mergeCell ref="B302:B311"/>
-    <mergeCell ref="C302:C311"/>
-    <mergeCell ref="D302:D311"/>
-    <mergeCell ref="E302:E311"/>
-    <mergeCell ref="F302:F311"/>
-    <mergeCell ref="G302:G311"/>
-    <mergeCell ref="H302:H311"/>
-    <mergeCell ref="I302:I311"/>
-    <mergeCell ref="B272:B281"/>
-    <mergeCell ref="C272:C281"/>
-    <mergeCell ref="D272:D281"/>
-    <mergeCell ref="E272:E281"/>
-    <mergeCell ref="F272:F281"/>
-    <mergeCell ref="G272:G281"/>
-    <mergeCell ref="H272:H281"/>
-    <mergeCell ref="I272:I281"/>
-    <mergeCell ref="J272:J291"/>
-    <mergeCell ref="B282:B291"/>
-    <mergeCell ref="C282:C291"/>
-    <mergeCell ref="D282:D291"/>
-    <mergeCell ref="E282:E291"/>
-    <mergeCell ref="F282:F291"/>
-    <mergeCell ref="G282:G291"/>
-    <mergeCell ref="H282:H291"/>
-    <mergeCell ref="I282:I291"/>
-    <mergeCell ref="B250:J250"/>
-    <mergeCell ref="B252:B261"/>
-    <mergeCell ref="C252:C261"/>
-    <mergeCell ref="D252:D261"/>
-    <mergeCell ref="E252:E261"/>
-    <mergeCell ref="F252:F261"/>
-    <mergeCell ref="G252:G261"/>
-    <mergeCell ref="H252:H261"/>
-    <mergeCell ref="I252:I261"/>
-    <mergeCell ref="J252:J271"/>
-    <mergeCell ref="B262:B271"/>
-    <mergeCell ref="C262:C271"/>
-    <mergeCell ref="D262:D271"/>
-    <mergeCell ref="E262:E271"/>
-    <mergeCell ref="F262:F271"/>
-    <mergeCell ref="G262:G271"/>
-    <mergeCell ref="H262:H271"/>
-    <mergeCell ref="I262:I271"/>
-    <mergeCell ref="B230:B239"/>
-    <mergeCell ref="C230:C239"/>
-    <mergeCell ref="D230:D239"/>
-    <mergeCell ref="E230:E239"/>
-    <mergeCell ref="F230:F239"/>
-    <mergeCell ref="G230:G239"/>
-    <mergeCell ref="H230:H239"/>
-    <mergeCell ref="I230:I239"/>
-    <mergeCell ref="J230:J249"/>
-    <mergeCell ref="B240:B249"/>
-    <mergeCell ref="C240:C249"/>
-    <mergeCell ref="D240:D249"/>
-    <mergeCell ref="E240:E249"/>
-    <mergeCell ref="F240:F249"/>
-    <mergeCell ref="G240:G249"/>
-    <mergeCell ref="H240:H249"/>
-    <mergeCell ref="I240:I249"/>
-    <mergeCell ref="B210:B219"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="E210:E219"/>
-    <mergeCell ref="F210:F219"/>
-    <mergeCell ref="G210:G219"/>
-    <mergeCell ref="H210:H219"/>
-    <mergeCell ref="I210:I219"/>
-    <mergeCell ref="J210:J229"/>
-    <mergeCell ref="B220:B229"/>
-    <mergeCell ref="C220:C229"/>
-    <mergeCell ref="D220:D229"/>
-    <mergeCell ref="E220:E229"/>
-    <mergeCell ref="F220:F229"/>
-    <mergeCell ref="G220:G229"/>
-    <mergeCell ref="H220:H229"/>
-    <mergeCell ref="I220:I229"/>
-    <mergeCell ref="B188:J188"/>
-    <mergeCell ref="B190:B199"/>
-    <mergeCell ref="C190:C199"/>
-    <mergeCell ref="D190:D199"/>
-    <mergeCell ref="E190:E199"/>
-    <mergeCell ref="F190:F199"/>
-    <mergeCell ref="G190:G199"/>
-    <mergeCell ref="H190:H199"/>
-    <mergeCell ref="I190:I199"/>
-    <mergeCell ref="J190:J209"/>
-    <mergeCell ref="B200:B209"/>
-    <mergeCell ref="C200:C209"/>
-    <mergeCell ref="D200:D209"/>
-    <mergeCell ref="E200:E209"/>
-    <mergeCell ref="F200:F209"/>
-    <mergeCell ref="G200:G209"/>
-    <mergeCell ref="H200:H209"/>
-    <mergeCell ref="I200:I209"/>
-    <mergeCell ref="B168:B177"/>
-    <mergeCell ref="C168:C177"/>
-    <mergeCell ref="D168:D177"/>
-    <mergeCell ref="E168:E177"/>
-    <mergeCell ref="F168:F177"/>
-    <mergeCell ref="G168:G177"/>
-    <mergeCell ref="H168:H177"/>
-    <mergeCell ref="I168:I177"/>
-    <mergeCell ref="J168:J187"/>
-    <mergeCell ref="B178:B187"/>
-    <mergeCell ref="C178:C187"/>
-    <mergeCell ref="D178:D187"/>
-    <mergeCell ref="E178:E187"/>
-    <mergeCell ref="F178:F187"/>
-    <mergeCell ref="G178:G187"/>
-    <mergeCell ref="H178:H187"/>
-    <mergeCell ref="I178:I187"/>
-    <mergeCell ref="B148:B157"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="D148:D157"/>
-    <mergeCell ref="E148:E157"/>
-    <mergeCell ref="F148:F157"/>
-    <mergeCell ref="G148:G157"/>
-    <mergeCell ref="H148:H157"/>
-    <mergeCell ref="I148:I157"/>
-    <mergeCell ref="J148:J167"/>
-    <mergeCell ref="B158:B167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="F158:F167"/>
-    <mergeCell ref="G158:G167"/>
-    <mergeCell ref="H158:H167"/>
-    <mergeCell ref="I158:I167"/>
+    <mergeCell ref="T602:T611"/>
+    <mergeCell ref="U602:U611"/>
+    <mergeCell ref="V602:V611"/>
+    <mergeCell ref="W602:W611"/>
+    <mergeCell ref="X602:X611"/>
+    <mergeCell ref="Y602:Y611"/>
+    <mergeCell ref="Z602:Z611"/>
+    <mergeCell ref="AA602:AA611"/>
+    <mergeCell ref="AB602:AB621"/>
+    <mergeCell ref="T612:T621"/>
+    <mergeCell ref="U612:U621"/>
+    <mergeCell ref="V612:V621"/>
+    <mergeCell ref="W612:W621"/>
+    <mergeCell ref="X612:X621"/>
+    <mergeCell ref="Y612:Y621"/>
+    <mergeCell ref="Z612:Z621"/>
+    <mergeCell ref="AA612:AA621"/>
+    <mergeCell ref="T582:T591"/>
+    <mergeCell ref="U582:U591"/>
+    <mergeCell ref="V582:V591"/>
+    <mergeCell ref="W582:W591"/>
+    <mergeCell ref="X582:X591"/>
+    <mergeCell ref="Y582:Y591"/>
+    <mergeCell ref="Z582:Z591"/>
+    <mergeCell ref="AA582:AA591"/>
+    <mergeCell ref="AB582:AB601"/>
+    <mergeCell ref="T592:T601"/>
+    <mergeCell ref="U592:U601"/>
+    <mergeCell ref="V592:V601"/>
+    <mergeCell ref="W592:W601"/>
+    <mergeCell ref="X592:X601"/>
+    <mergeCell ref="Y592:Y601"/>
+    <mergeCell ref="Z592:Z601"/>
+    <mergeCell ref="AA592:AA601"/>
+    <mergeCell ref="T560:AB560"/>
+    <mergeCell ref="T562:T571"/>
+    <mergeCell ref="U562:U571"/>
+    <mergeCell ref="V562:V571"/>
+    <mergeCell ref="W562:W571"/>
+    <mergeCell ref="X562:X571"/>
+    <mergeCell ref="Y562:Y571"/>
+    <mergeCell ref="Z562:Z571"/>
+    <mergeCell ref="AA562:AA571"/>
+    <mergeCell ref="AB562:AB581"/>
+    <mergeCell ref="T572:T581"/>
+    <mergeCell ref="U572:U581"/>
+    <mergeCell ref="V572:V581"/>
+    <mergeCell ref="W572:W581"/>
+    <mergeCell ref="X572:X581"/>
+    <mergeCell ref="Y572:Y581"/>
+    <mergeCell ref="Z572:Z581"/>
+    <mergeCell ref="AA572:AA581"/>
+    <mergeCell ref="K602:K611"/>
+    <mergeCell ref="L602:L611"/>
+    <mergeCell ref="M602:M611"/>
+    <mergeCell ref="N602:N611"/>
+    <mergeCell ref="O602:O611"/>
+    <mergeCell ref="P602:P611"/>
+    <mergeCell ref="Q602:Q611"/>
+    <mergeCell ref="R602:R611"/>
+    <mergeCell ref="S602:S621"/>
+    <mergeCell ref="K612:K621"/>
+    <mergeCell ref="L612:L621"/>
+    <mergeCell ref="M612:M621"/>
+    <mergeCell ref="N612:N621"/>
+    <mergeCell ref="O612:O621"/>
+    <mergeCell ref="P612:P621"/>
+    <mergeCell ref="Q612:Q621"/>
+    <mergeCell ref="R612:R621"/>
+    <mergeCell ref="K582:K591"/>
+    <mergeCell ref="L582:L591"/>
+    <mergeCell ref="M582:M591"/>
+    <mergeCell ref="N582:N591"/>
+    <mergeCell ref="O582:O591"/>
+    <mergeCell ref="P582:P591"/>
+    <mergeCell ref="Q582:Q591"/>
+    <mergeCell ref="R582:R591"/>
+    <mergeCell ref="S582:S601"/>
+    <mergeCell ref="K592:K601"/>
+    <mergeCell ref="L592:L601"/>
+    <mergeCell ref="M592:M601"/>
+    <mergeCell ref="N592:N601"/>
+    <mergeCell ref="O592:O601"/>
+    <mergeCell ref="P592:P601"/>
+    <mergeCell ref="Q592:Q601"/>
+    <mergeCell ref="R592:R601"/>
+    <mergeCell ref="K560:S560"/>
+    <mergeCell ref="K562:K571"/>
+    <mergeCell ref="L562:L571"/>
+    <mergeCell ref="M562:M571"/>
+    <mergeCell ref="N562:N571"/>
+    <mergeCell ref="O562:O571"/>
+    <mergeCell ref="P562:P571"/>
+    <mergeCell ref="Q562:Q571"/>
+    <mergeCell ref="R562:R571"/>
+    <mergeCell ref="S562:S581"/>
+    <mergeCell ref="K572:K581"/>
+    <mergeCell ref="L572:L581"/>
+    <mergeCell ref="M572:M581"/>
+    <mergeCell ref="N572:N581"/>
+    <mergeCell ref="O572:O581"/>
+    <mergeCell ref="P572:P581"/>
+    <mergeCell ref="Q572:Q581"/>
+    <mergeCell ref="R572:R581"/>
+    <mergeCell ref="T540:T549"/>
+    <mergeCell ref="U540:U549"/>
+    <mergeCell ref="V540:V549"/>
+    <mergeCell ref="W540:W549"/>
+    <mergeCell ref="X540:X549"/>
+    <mergeCell ref="Y540:Y549"/>
+    <mergeCell ref="Z540:Z549"/>
+    <mergeCell ref="AA540:AA549"/>
+    <mergeCell ref="AB540:AB559"/>
+    <mergeCell ref="T550:T559"/>
+    <mergeCell ref="U550:U559"/>
+    <mergeCell ref="V550:V559"/>
+    <mergeCell ref="W550:W559"/>
+    <mergeCell ref="X550:X559"/>
+    <mergeCell ref="Y550:Y559"/>
+    <mergeCell ref="Z550:Z559"/>
+    <mergeCell ref="AA550:AA559"/>
+    <mergeCell ref="T520:T529"/>
+    <mergeCell ref="U520:U529"/>
+    <mergeCell ref="V520:V529"/>
+    <mergeCell ref="W520:W529"/>
+    <mergeCell ref="X520:X529"/>
+    <mergeCell ref="Y520:Y529"/>
+    <mergeCell ref="Z520:Z529"/>
+    <mergeCell ref="AA520:AA529"/>
+    <mergeCell ref="AB520:AB539"/>
+    <mergeCell ref="T530:T539"/>
+    <mergeCell ref="U530:U539"/>
+    <mergeCell ref="V530:V539"/>
+    <mergeCell ref="W530:W539"/>
+    <mergeCell ref="X530:X539"/>
+    <mergeCell ref="Y530:Y539"/>
+    <mergeCell ref="Z530:Z539"/>
+    <mergeCell ref="AA530:AA539"/>
+    <mergeCell ref="T498:AB498"/>
+    <mergeCell ref="T500:T509"/>
+    <mergeCell ref="U500:U509"/>
+    <mergeCell ref="V500:V509"/>
+    <mergeCell ref="W500:W509"/>
+    <mergeCell ref="X500:X509"/>
+    <mergeCell ref="Y500:Y509"/>
+    <mergeCell ref="Z500:Z509"/>
+    <mergeCell ref="AA500:AA509"/>
+    <mergeCell ref="AB500:AB519"/>
+    <mergeCell ref="T510:T519"/>
+    <mergeCell ref="U510:U519"/>
+    <mergeCell ref="V510:V519"/>
+    <mergeCell ref="W510:W519"/>
+    <mergeCell ref="X510:X519"/>
+    <mergeCell ref="Y510:Y519"/>
+    <mergeCell ref="Z510:Z519"/>
+    <mergeCell ref="AA510:AA519"/>
+    <mergeCell ref="K540:K549"/>
+    <mergeCell ref="L540:L549"/>
+    <mergeCell ref="M540:M549"/>
+    <mergeCell ref="N540:N549"/>
+    <mergeCell ref="O540:O549"/>
+    <mergeCell ref="P540:P549"/>
+    <mergeCell ref="Q540:Q549"/>
+    <mergeCell ref="R540:R549"/>
+    <mergeCell ref="S540:S559"/>
+    <mergeCell ref="K550:K559"/>
+    <mergeCell ref="L550:L559"/>
+    <mergeCell ref="M550:M559"/>
+    <mergeCell ref="N550:N559"/>
+    <mergeCell ref="O550:O559"/>
+    <mergeCell ref="P550:P559"/>
+    <mergeCell ref="Q550:Q559"/>
+    <mergeCell ref="R550:R559"/>
+    <mergeCell ref="K520:K529"/>
+    <mergeCell ref="L520:L529"/>
+    <mergeCell ref="M520:M529"/>
+    <mergeCell ref="N520:N529"/>
+    <mergeCell ref="O520:O529"/>
+    <mergeCell ref="P520:P529"/>
+    <mergeCell ref="Q520:Q529"/>
+    <mergeCell ref="R520:R529"/>
+    <mergeCell ref="S520:S539"/>
+    <mergeCell ref="K530:K539"/>
+    <mergeCell ref="L530:L539"/>
+    <mergeCell ref="M530:M539"/>
+    <mergeCell ref="N530:N539"/>
+    <mergeCell ref="O530:O539"/>
+    <mergeCell ref="P530:P539"/>
+    <mergeCell ref="Q530:Q539"/>
+    <mergeCell ref="R530:R539"/>
+    <mergeCell ref="K498:S498"/>
+    <mergeCell ref="K500:K509"/>
+    <mergeCell ref="L500:L509"/>
+    <mergeCell ref="M500:M509"/>
+    <mergeCell ref="N500:N509"/>
+    <mergeCell ref="O500:O509"/>
+    <mergeCell ref="P500:P509"/>
+    <mergeCell ref="Q500:Q509"/>
+    <mergeCell ref="R500:R509"/>
+    <mergeCell ref="S500:S519"/>
+    <mergeCell ref="K510:K519"/>
+    <mergeCell ref="L510:L519"/>
+    <mergeCell ref="M510:M519"/>
+    <mergeCell ref="N510:N519"/>
+    <mergeCell ref="O510:O519"/>
+    <mergeCell ref="P510:P519"/>
+    <mergeCell ref="Q510:Q519"/>
+    <mergeCell ref="R510:R519"/>
+    <mergeCell ref="T478:T487"/>
+    <mergeCell ref="U478:U487"/>
+    <mergeCell ref="V478:V487"/>
+    <mergeCell ref="W478:W487"/>
+    <mergeCell ref="X478:X487"/>
+    <mergeCell ref="Y478:Y487"/>
+    <mergeCell ref="Z478:Z487"/>
+    <mergeCell ref="AA478:AA487"/>
+    <mergeCell ref="AB478:AB497"/>
+    <mergeCell ref="T488:T497"/>
+    <mergeCell ref="U488:U497"/>
+    <mergeCell ref="V488:V497"/>
+    <mergeCell ref="W488:W497"/>
+    <mergeCell ref="X488:X497"/>
+    <mergeCell ref="Y488:Y497"/>
+    <mergeCell ref="Z488:Z497"/>
+    <mergeCell ref="AA488:AA497"/>
+    <mergeCell ref="T458:T467"/>
+    <mergeCell ref="U458:U467"/>
+    <mergeCell ref="V458:V467"/>
+    <mergeCell ref="W458:W467"/>
+    <mergeCell ref="X458:X467"/>
+    <mergeCell ref="Y458:Y467"/>
+    <mergeCell ref="Z458:Z467"/>
+    <mergeCell ref="AA458:AA467"/>
+    <mergeCell ref="AB458:AB477"/>
+    <mergeCell ref="T468:T477"/>
+    <mergeCell ref="U468:U477"/>
+    <mergeCell ref="V468:V477"/>
+    <mergeCell ref="W468:W477"/>
+    <mergeCell ref="X468:X477"/>
+    <mergeCell ref="Y468:Y477"/>
+    <mergeCell ref="Z468:Z477"/>
+    <mergeCell ref="AA468:AA477"/>
+    <mergeCell ref="T436:AB436"/>
+    <mergeCell ref="T438:T447"/>
+    <mergeCell ref="U438:U447"/>
+    <mergeCell ref="V438:V447"/>
+    <mergeCell ref="W438:W447"/>
+    <mergeCell ref="X438:X447"/>
+    <mergeCell ref="Y438:Y447"/>
+    <mergeCell ref="Z438:Z447"/>
+    <mergeCell ref="AA438:AA447"/>
+    <mergeCell ref="AB438:AB457"/>
+    <mergeCell ref="T448:T457"/>
+    <mergeCell ref="U448:U457"/>
+    <mergeCell ref="V448:V457"/>
+    <mergeCell ref="W448:W457"/>
+    <mergeCell ref="X448:X457"/>
+    <mergeCell ref="Y448:Y457"/>
+    <mergeCell ref="Z448:Z457"/>
+    <mergeCell ref="AA448:AA457"/>
+    <mergeCell ref="K478:K487"/>
+    <mergeCell ref="L478:L487"/>
+    <mergeCell ref="M478:M487"/>
+    <mergeCell ref="N478:N487"/>
+    <mergeCell ref="O478:O487"/>
+    <mergeCell ref="P478:P487"/>
+    <mergeCell ref="Q478:Q487"/>
+    <mergeCell ref="R478:R487"/>
+    <mergeCell ref="S478:S497"/>
+    <mergeCell ref="K488:K497"/>
+    <mergeCell ref="L488:L497"/>
+    <mergeCell ref="M488:M497"/>
+    <mergeCell ref="N488:N497"/>
+    <mergeCell ref="O488:O497"/>
+    <mergeCell ref="P488:P497"/>
+    <mergeCell ref="Q488:Q497"/>
+    <mergeCell ref="R488:R497"/>
+    <mergeCell ref="K458:K467"/>
+    <mergeCell ref="L458:L467"/>
+    <mergeCell ref="M458:M467"/>
+    <mergeCell ref="N458:N467"/>
+    <mergeCell ref="O458:O467"/>
+    <mergeCell ref="P458:P467"/>
+    <mergeCell ref="Q458:Q467"/>
+    <mergeCell ref="R458:R467"/>
+    <mergeCell ref="S458:S477"/>
+    <mergeCell ref="K468:K477"/>
+    <mergeCell ref="L468:L477"/>
+    <mergeCell ref="M468:M477"/>
+    <mergeCell ref="N468:N477"/>
+    <mergeCell ref="O468:O477"/>
+    <mergeCell ref="P468:P477"/>
+    <mergeCell ref="Q468:Q477"/>
+    <mergeCell ref="R468:R477"/>
+    <mergeCell ref="K436:S436"/>
+    <mergeCell ref="K438:K447"/>
+    <mergeCell ref="L438:L447"/>
+    <mergeCell ref="M438:M447"/>
+    <mergeCell ref="N438:N447"/>
+    <mergeCell ref="O438:O447"/>
+    <mergeCell ref="P438:P447"/>
+    <mergeCell ref="Q438:Q447"/>
+    <mergeCell ref="R438:R447"/>
+    <mergeCell ref="S438:S457"/>
+    <mergeCell ref="K448:K457"/>
+    <mergeCell ref="L448:L457"/>
+    <mergeCell ref="M448:M457"/>
+    <mergeCell ref="N448:N457"/>
+    <mergeCell ref="O448:O457"/>
+    <mergeCell ref="P448:P457"/>
+    <mergeCell ref="Q448:Q457"/>
+    <mergeCell ref="R448:R457"/>
+    <mergeCell ref="T416:T425"/>
+    <mergeCell ref="U416:U425"/>
+    <mergeCell ref="V416:V425"/>
+    <mergeCell ref="W416:W425"/>
+    <mergeCell ref="X416:X425"/>
+    <mergeCell ref="Y416:Y425"/>
+    <mergeCell ref="Z416:Z425"/>
+    <mergeCell ref="AA416:AA425"/>
+    <mergeCell ref="AB416:AB435"/>
+    <mergeCell ref="T426:T435"/>
+    <mergeCell ref="U426:U435"/>
+    <mergeCell ref="V426:V435"/>
+    <mergeCell ref="W426:W435"/>
+    <mergeCell ref="X426:X435"/>
+    <mergeCell ref="Y426:Y435"/>
+    <mergeCell ref="Z426:Z435"/>
+    <mergeCell ref="AA426:AA435"/>
+    <mergeCell ref="T396:T405"/>
+    <mergeCell ref="U396:U405"/>
+    <mergeCell ref="V396:V405"/>
+    <mergeCell ref="W396:W405"/>
+    <mergeCell ref="X396:X405"/>
+    <mergeCell ref="Y396:Y405"/>
+    <mergeCell ref="Z396:Z405"/>
+    <mergeCell ref="AA396:AA405"/>
+    <mergeCell ref="AB396:AB415"/>
+    <mergeCell ref="T406:T415"/>
+    <mergeCell ref="U406:U415"/>
+    <mergeCell ref="V406:V415"/>
+    <mergeCell ref="W406:W415"/>
+    <mergeCell ref="X406:X415"/>
+    <mergeCell ref="Y406:Y415"/>
+    <mergeCell ref="Z406:Z415"/>
+    <mergeCell ref="AA406:AA415"/>
+    <mergeCell ref="T374:AB374"/>
+    <mergeCell ref="T376:T385"/>
+    <mergeCell ref="U376:U385"/>
+    <mergeCell ref="V376:V385"/>
+    <mergeCell ref="W376:W385"/>
+    <mergeCell ref="X376:X385"/>
+    <mergeCell ref="Y376:Y385"/>
+    <mergeCell ref="Z376:Z385"/>
+    <mergeCell ref="AA376:AA385"/>
+    <mergeCell ref="AB376:AB395"/>
+    <mergeCell ref="T386:T395"/>
+    <mergeCell ref="U386:U395"/>
+    <mergeCell ref="V386:V395"/>
+    <mergeCell ref="W386:W395"/>
+    <mergeCell ref="X386:X395"/>
+    <mergeCell ref="Y386:Y395"/>
+    <mergeCell ref="Z386:Z395"/>
+    <mergeCell ref="AA386:AA395"/>
+    <mergeCell ref="K416:K425"/>
+    <mergeCell ref="L416:L425"/>
+    <mergeCell ref="M416:M425"/>
+    <mergeCell ref="N416:N425"/>
+    <mergeCell ref="O416:O425"/>
+    <mergeCell ref="P416:P425"/>
+    <mergeCell ref="Q416:Q425"/>
+    <mergeCell ref="R416:R425"/>
+    <mergeCell ref="S416:S435"/>
+    <mergeCell ref="K426:K435"/>
+    <mergeCell ref="L426:L435"/>
+    <mergeCell ref="M426:M435"/>
+    <mergeCell ref="N426:N435"/>
+    <mergeCell ref="O426:O435"/>
+    <mergeCell ref="P426:P435"/>
+    <mergeCell ref="Q426:Q435"/>
+    <mergeCell ref="R426:R435"/>
+    <mergeCell ref="K396:K405"/>
+    <mergeCell ref="L396:L405"/>
+    <mergeCell ref="M396:M405"/>
+    <mergeCell ref="N396:N405"/>
+    <mergeCell ref="O396:O405"/>
+    <mergeCell ref="P396:P405"/>
+    <mergeCell ref="Q396:Q405"/>
+    <mergeCell ref="R396:R405"/>
+    <mergeCell ref="S396:S415"/>
+    <mergeCell ref="K406:K415"/>
+    <mergeCell ref="L406:L415"/>
+    <mergeCell ref="M406:M415"/>
+    <mergeCell ref="N406:N415"/>
+    <mergeCell ref="O406:O415"/>
+    <mergeCell ref="P406:P415"/>
+    <mergeCell ref="Q406:Q415"/>
+    <mergeCell ref="R406:R415"/>
+    <mergeCell ref="K374:S374"/>
+    <mergeCell ref="K376:K385"/>
+    <mergeCell ref="L376:L385"/>
+    <mergeCell ref="M376:M385"/>
+    <mergeCell ref="N376:N385"/>
+    <mergeCell ref="O376:O385"/>
+    <mergeCell ref="P376:P385"/>
+    <mergeCell ref="Q376:Q385"/>
+    <mergeCell ref="R376:R385"/>
+    <mergeCell ref="S376:S395"/>
+    <mergeCell ref="K386:K395"/>
+    <mergeCell ref="L386:L395"/>
+    <mergeCell ref="M386:M395"/>
+    <mergeCell ref="N386:N395"/>
+    <mergeCell ref="O386:O395"/>
+    <mergeCell ref="P386:P395"/>
+    <mergeCell ref="Q386:Q395"/>
+    <mergeCell ref="R386:R395"/>
+    <mergeCell ref="T354:T363"/>
+    <mergeCell ref="U354:U363"/>
+    <mergeCell ref="V354:V363"/>
+    <mergeCell ref="W354:W363"/>
+    <mergeCell ref="X354:X363"/>
+    <mergeCell ref="Y354:Y363"/>
+    <mergeCell ref="Z354:Z363"/>
+    <mergeCell ref="AA354:AA363"/>
+    <mergeCell ref="AB354:AB373"/>
+    <mergeCell ref="T364:T373"/>
+    <mergeCell ref="U364:U373"/>
+    <mergeCell ref="V364:V373"/>
+    <mergeCell ref="W364:W373"/>
+    <mergeCell ref="X364:X373"/>
+    <mergeCell ref="Y364:Y373"/>
+    <mergeCell ref="Z364:Z373"/>
+    <mergeCell ref="AA364:AA373"/>
+    <mergeCell ref="T334:T343"/>
+    <mergeCell ref="U334:U343"/>
+    <mergeCell ref="V334:V343"/>
+    <mergeCell ref="W334:W343"/>
+    <mergeCell ref="X334:X343"/>
+    <mergeCell ref="Y334:Y343"/>
+    <mergeCell ref="Z334:Z343"/>
+    <mergeCell ref="AA334:AA343"/>
+    <mergeCell ref="AB334:AB353"/>
+    <mergeCell ref="T344:T353"/>
+    <mergeCell ref="U344:U353"/>
+    <mergeCell ref="V344:V353"/>
+    <mergeCell ref="W344:W353"/>
+    <mergeCell ref="X344:X353"/>
+    <mergeCell ref="Y344:Y353"/>
+    <mergeCell ref="Z344:Z353"/>
+    <mergeCell ref="AA344:AA353"/>
+    <mergeCell ref="T312:AB312"/>
+    <mergeCell ref="T314:T323"/>
+    <mergeCell ref="U314:U323"/>
+    <mergeCell ref="V314:V323"/>
+    <mergeCell ref="W314:W323"/>
+    <mergeCell ref="X314:X323"/>
+    <mergeCell ref="Y314:Y323"/>
+    <mergeCell ref="Z314:Z323"/>
+    <mergeCell ref="AA314:AA323"/>
+    <mergeCell ref="AB314:AB333"/>
+    <mergeCell ref="T324:T333"/>
+    <mergeCell ref="U324:U333"/>
+    <mergeCell ref="V324:V333"/>
+    <mergeCell ref="W324:W333"/>
+    <mergeCell ref="X324:X333"/>
+    <mergeCell ref="Y324:Y333"/>
+    <mergeCell ref="Z324:Z333"/>
+    <mergeCell ref="AA324:AA333"/>
+    <mergeCell ref="K354:K363"/>
+    <mergeCell ref="L354:L363"/>
+    <mergeCell ref="M354:M363"/>
+    <mergeCell ref="N354:N363"/>
+    <mergeCell ref="O354:O363"/>
+    <mergeCell ref="P354:P363"/>
+    <mergeCell ref="Q354:Q363"/>
+    <mergeCell ref="R354:R363"/>
+    <mergeCell ref="S354:S373"/>
+    <mergeCell ref="K364:K373"/>
+    <mergeCell ref="L364:L373"/>
+    <mergeCell ref="M364:M373"/>
+    <mergeCell ref="N364:N373"/>
+    <mergeCell ref="O364:O373"/>
+    <mergeCell ref="P364:P373"/>
+    <mergeCell ref="Q364:Q373"/>
+    <mergeCell ref="R364:R373"/>
+    <mergeCell ref="K334:K343"/>
+    <mergeCell ref="L334:L343"/>
+    <mergeCell ref="M334:M343"/>
+    <mergeCell ref="N334:N343"/>
+    <mergeCell ref="O334:O343"/>
+    <mergeCell ref="P334:P343"/>
+    <mergeCell ref="Q334:Q343"/>
+    <mergeCell ref="R334:R343"/>
+    <mergeCell ref="S334:S353"/>
+    <mergeCell ref="K344:K353"/>
+    <mergeCell ref="L344:L353"/>
+    <mergeCell ref="M344:M353"/>
+    <mergeCell ref="N344:N353"/>
+    <mergeCell ref="O344:O353"/>
+    <mergeCell ref="P344:P353"/>
+    <mergeCell ref="Q344:Q353"/>
+    <mergeCell ref="R344:R353"/>
+    <mergeCell ref="K312:S312"/>
+    <mergeCell ref="K314:K323"/>
+    <mergeCell ref="L314:L323"/>
+    <mergeCell ref="M314:M323"/>
+    <mergeCell ref="N314:N323"/>
+    <mergeCell ref="O314:O323"/>
+    <mergeCell ref="P314:P323"/>
+    <mergeCell ref="Q314:Q323"/>
+    <mergeCell ref="R314:R323"/>
+    <mergeCell ref="S314:S333"/>
+    <mergeCell ref="K324:K333"/>
+    <mergeCell ref="L324:L333"/>
+    <mergeCell ref="M324:M333"/>
+    <mergeCell ref="N324:N333"/>
+    <mergeCell ref="O324:O333"/>
+    <mergeCell ref="P324:P333"/>
+    <mergeCell ref="Q324:Q333"/>
+    <mergeCell ref="R324:R333"/>
+    <mergeCell ref="G106:G115"/>
+    <mergeCell ref="H106:H115"/>
+    <mergeCell ref="I106:I115"/>
+    <mergeCell ref="J106:J125"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="C116:C125"/>
+    <mergeCell ref="D116:D125"/>
+    <mergeCell ref="E116:E125"/>
+    <mergeCell ref="F116:F125"/>
+    <mergeCell ref="G116:G125"/>
+    <mergeCell ref="H116:H125"/>
+    <mergeCell ref="I116:I125"/>
+    <mergeCell ref="B106:B115"/>
+    <mergeCell ref="C106:C115"/>
+    <mergeCell ref="D106:D115"/>
+    <mergeCell ref="E106:E115"/>
+    <mergeCell ref="F106:F115"/>
+    <mergeCell ref="J44:J63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="G86:G95"/>
+    <mergeCell ref="H86:H95"/>
+    <mergeCell ref="I86:I95"/>
+    <mergeCell ref="J86:J105"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="C96:C105"/>
+    <mergeCell ref="D96:D105"/>
+    <mergeCell ref="E96:E105"/>
+    <mergeCell ref="F96:F105"/>
+    <mergeCell ref="G96:G105"/>
+    <mergeCell ref="H96:H105"/>
+    <mergeCell ref="I96:I105"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="C86:C95"/>
+    <mergeCell ref="D86:D95"/>
+    <mergeCell ref="E86:E95"/>
+    <mergeCell ref="F86:F95"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="E66:E75"/>
+    <mergeCell ref="F66:F75"/>
+    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="H66:H75"/>
+    <mergeCell ref="I66:I75"/>
+    <mergeCell ref="J66:J85"/>
+    <mergeCell ref="B76:B85"/>
+    <mergeCell ref="C76:C85"/>
+    <mergeCell ref="D76:D85"/>
+    <mergeCell ref="E76:E85"/>
+    <mergeCell ref="F76:F85"/>
+    <mergeCell ref="G76:G85"/>
+    <mergeCell ref="H76:H85"/>
+    <mergeCell ref="I76:I85"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="E54:E63"/>
+    <mergeCell ref="F54:F63"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="H34:H43"/>
+    <mergeCell ref="I34:I43"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="G54:G63"/>
+    <mergeCell ref="H54:H63"/>
+    <mergeCell ref="I54:I63"/>
+    <mergeCell ref="E34:E43"/>
+    <mergeCell ref="F34:F43"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="I14:I23"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="F24:F33"/>
+    <mergeCell ref="G24:G33"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="I24:I33"/>
+    <mergeCell ref="J4:J23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="E14:E23"/>
+    <mergeCell ref="F14:F23"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="I4:I13"/>
     <mergeCell ref="H4:H13"/>
@@ -23375,617 +23588,404 @@
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="C34:C43"/>
     <mergeCell ref="D34:D43"/>
-    <mergeCell ref="E34:E43"/>
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="I14:I23"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="F24:F33"/>
-    <mergeCell ref="G24:G33"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="I24:I33"/>
-    <mergeCell ref="J4:J23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="D14:D23"/>
-    <mergeCell ref="E14:E23"/>
-    <mergeCell ref="F14:F23"/>
-    <mergeCell ref="E76:E85"/>
-    <mergeCell ref="F76:F85"/>
-    <mergeCell ref="G76:G85"/>
-    <mergeCell ref="H76:H85"/>
-    <mergeCell ref="I76:I85"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="E54:E63"/>
-    <mergeCell ref="F54:F63"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="H34:H43"/>
-    <mergeCell ref="I34:I43"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="G54:G63"/>
-    <mergeCell ref="H54:H63"/>
-    <mergeCell ref="I54:I63"/>
-    <mergeCell ref="J44:J63"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="G86:G95"/>
-    <mergeCell ref="H86:H95"/>
-    <mergeCell ref="I86:I95"/>
-    <mergeCell ref="J86:J105"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="C96:C105"/>
-    <mergeCell ref="D96:D105"/>
-    <mergeCell ref="E96:E105"/>
-    <mergeCell ref="F96:F105"/>
-    <mergeCell ref="G96:G105"/>
-    <mergeCell ref="H96:H105"/>
-    <mergeCell ref="I96:I105"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="C86:C95"/>
-    <mergeCell ref="D86:D95"/>
-    <mergeCell ref="E86:E95"/>
-    <mergeCell ref="F86:F95"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="E66:E75"/>
-    <mergeCell ref="F66:F75"/>
-    <mergeCell ref="G66:G75"/>
-    <mergeCell ref="H66:H75"/>
-    <mergeCell ref="I66:I75"/>
-    <mergeCell ref="J66:J85"/>
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="D76:D85"/>
-    <mergeCell ref="G106:G115"/>
-    <mergeCell ref="H106:H115"/>
-    <mergeCell ref="I106:I115"/>
-    <mergeCell ref="J106:J125"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="C116:C125"/>
-    <mergeCell ref="D116:D125"/>
-    <mergeCell ref="E116:E125"/>
-    <mergeCell ref="F116:F125"/>
-    <mergeCell ref="G116:G125"/>
-    <mergeCell ref="H116:H125"/>
-    <mergeCell ref="I116:I125"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="C106:C115"/>
-    <mergeCell ref="D106:D115"/>
-    <mergeCell ref="E106:E115"/>
-    <mergeCell ref="F106:F115"/>
-    <mergeCell ref="K312:S312"/>
-    <mergeCell ref="K314:K323"/>
-    <mergeCell ref="L314:L323"/>
-    <mergeCell ref="M314:M323"/>
-    <mergeCell ref="N314:N323"/>
-    <mergeCell ref="O314:O323"/>
-    <mergeCell ref="P314:P323"/>
-    <mergeCell ref="Q314:Q323"/>
-    <mergeCell ref="R314:R323"/>
-    <mergeCell ref="S314:S333"/>
-    <mergeCell ref="K324:K333"/>
-    <mergeCell ref="L324:L333"/>
-    <mergeCell ref="M324:M333"/>
-    <mergeCell ref="N324:N333"/>
-    <mergeCell ref="O324:O333"/>
-    <mergeCell ref="P324:P333"/>
-    <mergeCell ref="Q324:Q333"/>
-    <mergeCell ref="R324:R333"/>
-    <mergeCell ref="K334:K343"/>
-    <mergeCell ref="L334:L343"/>
-    <mergeCell ref="M334:M343"/>
-    <mergeCell ref="N334:N343"/>
-    <mergeCell ref="O334:O343"/>
-    <mergeCell ref="P334:P343"/>
-    <mergeCell ref="Q334:Q343"/>
-    <mergeCell ref="R334:R343"/>
-    <mergeCell ref="S334:S353"/>
-    <mergeCell ref="K344:K353"/>
-    <mergeCell ref="L344:L353"/>
-    <mergeCell ref="M344:M353"/>
-    <mergeCell ref="N344:N353"/>
-    <mergeCell ref="O344:O353"/>
-    <mergeCell ref="P344:P353"/>
-    <mergeCell ref="Q344:Q353"/>
-    <mergeCell ref="R344:R353"/>
-    <mergeCell ref="K354:K363"/>
-    <mergeCell ref="L354:L363"/>
-    <mergeCell ref="M354:M363"/>
-    <mergeCell ref="N354:N363"/>
-    <mergeCell ref="O354:O363"/>
-    <mergeCell ref="P354:P363"/>
-    <mergeCell ref="Q354:Q363"/>
-    <mergeCell ref="R354:R363"/>
-    <mergeCell ref="S354:S373"/>
-    <mergeCell ref="K364:K373"/>
-    <mergeCell ref="L364:L373"/>
-    <mergeCell ref="M364:M373"/>
-    <mergeCell ref="N364:N373"/>
-    <mergeCell ref="O364:O373"/>
-    <mergeCell ref="P364:P373"/>
-    <mergeCell ref="Q364:Q373"/>
-    <mergeCell ref="R364:R373"/>
-    <mergeCell ref="T312:AB312"/>
-    <mergeCell ref="T314:T323"/>
-    <mergeCell ref="U314:U323"/>
-    <mergeCell ref="V314:V323"/>
-    <mergeCell ref="W314:W323"/>
-    <mergeCell ref="X314:X323"/>
-    <mergeCell ref="Y314:Y323"/>
-    <mergeCell ref="Z314:Z323"/>
-    <mergeCell ref="AA314:AA323"/>
-    <mergeCell ref="AB314:AB333"/>
-    <mergeCell ref="T324:T333"/>
-    <mergeCell ref="U324:U333"/>
-    <mergeCell ref="V324:V333"/>
-    <mergeCell ref="W324:W333"/>
-    <mergeCell ref="X324:X333"/>
-    <mergeCell ref="Y324:Y333"/>
-    <mergeCell ref="Z324:Z333"/>
-    <mergeCell ref="AA324:AA333"/>
-    <mergeCell ref="T334:T343"/>
-    <mergeCell ref="U334:U343"/>
-    <mergeCell ref="V334:V343"/>
-    <mergeCell ref="W334:W343"/>
-    <mergeCell ref="X334:X343"/>
-    <mergeCell ref="Y334:Y343"/>
-    <mergeCell ref="Z334:Z343"/>
-    <mergeCell ref="AA334:AA343"/>
-    <mergeCell ref="AB334:AB353"/>
-    <mergeCell ref="T344:T353"/>
-    <mergeCell ref="U344:U353"/>
-    <mergeCell ref="V344:V353"/>
-    <mergeCell ref="W344:W353"/>
-    <mergeCell ref="X344:X353"/>
-    <mergeCell ref="Y344:Y353"/>
-    <mergeCell ref="Z344:Z353"/>
-    <mergeCell ref="AA344:AA353"/>
-    <mergeCell ref="T354:T363"/>
-    <mergeCell ref="U354:U363"/>
-    <mergeCell ref="V354:V363"/>
-    <mergeCell ref="W354:W363"/>
-    <mergeCell ref="X354:X363"/>
-    <mergeCell ref="Y354:Y363"/>
-    <mergeCell ref="Z354:Z363"/>
-    <mergeCell ref="AA354:AA363"/>
-    <mergeCell ref="AB354:AB373"/>
-    <mergeCell ref="T364:T373"/>
-    <mergeCell ref="U364:U373"/>
-    <mergeCell ref="V364:V373"/>
-    <mergeCell ref="W364:W373"/>
-    <mergeCell ref="X364:X373"/>
-    <mergeCell ref="Y364:Y373"/>
-    <mergeCell ref="Z364:Z373"/>
-    <mergeCell ref="AA364:AA373"/>
-    <mergeCell ref="K374:S374"/>
-    <mergeCell ref="K376:K385"/>
-    <mergeCell ref="L376:L385"/>
-    <mergeCell ref="M376:M385"/>
-    <mergeCell ref="N376:N385"/>
-    <mergeCell ref="O376:O385"/>
-    <mergeCell ref="P376:P385"/>
-    <mergeCell ref="Q376:Q385"/>
-    <mergeCell ref="R376:R385"/>
-    <mergeCell ref="S376:S395"/>
-    <mergeCell ref="K386:K395"/>
-    <mergeCell ref="L386:L395"/>
-    <mergeCell ref="M386:M395"/>
-    <mergeCell ref="N386:N395"/>
-    <mergeCell ref="O386:O395"/>
-    <mergeCell ref="P386:P395"/>
-    <mergeCell ref="Q386:Q395"/>
-    <mergeCell ref="R386:R395"/>
-    <mergeCell ref="K396:K405"/>
-    <mergeCell ref="L396:L405"/>
-    <mergeCell ref="M396:M405"/>
-    <mergeCell ref="N396:N405"/>
-    <mergeCell ref="O396:O405"/>
-    <mergeCell ref="P396:P405"/>
-    <mergeCell ref="Q396:Q405"/>
-    <mergeCell ref="R396:R405"/>
-    <mergeCell ref="S396:S415"/>
-    <mergeCell ref="K406:K415"/>
-    <mergeCell ref="L406:L415"/>
-    <mergeCell ref="M406:M415"/>
-    <mergeCell ref="N406:N415"/>
-    <mergeCell ref="O406:O415"/>
-    <mergeCell ref="P406:P415"/>
-    <mergeCell ref="Q406:Q415"/>
-    <mergeCell ref="R406:R415"/>
-    <mergeCell ref="K416:K425"/>
-    <mergeCell ref="L416:L425"/>
-    <mergeCell ref="M416:M425"/>
-    <mergeCell ref="N416:N425"/>
-    <mergeCell ref="O416:O425"/>
-    <mergeCell ref="P416:P425"/>
-    <mergeCell ref="Q416:Q425"/>
-    <mergeCell ref="R416:R425"/>
-    <mergeCell ref="S416:S435"/>
-    <mergeCell ref="K426:K435"/>
-    <mergeCell ref="L426:L435"/>
-    <mergeCell ref="M426:M435"/>
-    <mergeCell ref="N426:N435"/>
-    <mergeCell ref="O426:O435"/>
-    <mergeCell ref="P426:P435"/>
-    <mergeCell ref="Q426:Q435"/>
-    <mergeCell ref="R426:R435"/>
-    <mergeCell ref="T374:AB374"/>
-    <mergeCell ref="T376:T385"/>
-    <mergeCell ref="U376:U385"/>
-    <mergeCell ref="V376:V385"/>
-    <mergeCell ref="W376:W385"/>
-    <mergeCell ref="X376:X385"/>
-    <mergeCell ref="Y376:Y385"/>
-    <mergeCell ref="Z376:Z385"/>
-    <mergeCell ref="AA376:AA385"/>
-    <mergeCell ref="AB376:AB395"/>
-    <mergeCell ref="T386:T395"/>
-    <mergeCell ref="U386:U395"/>
-    <mergeCell ref="V386:V395"/>
-    <mergeCell ref="W386:W395"/>
-    <mergeCell ref="X386:X395"/>
-    <mergeCell ref="Y386:Y395"/>
-    <mergeCell ref="Z386:Z395"/>
-    <mergeCell ref="AA386:AA395"/>
-    <mergeCell ref="T396:T405"/>
-    <mergeCell ref="U396:U405"/>
-    <mergeCell ref="V396:V405"/>
-    <mergeCell ref="W396:W405"/>
-    <mergeCell ref="X396:X405"/>
-    <mergeCell ref="Y396:Y405"/>
-    <mergeCell ref="Z396:Z405"/>
-    <mergeCell ref="AA396:AA405"/>
-    <mergeCell ref="AB396:AB415"/>
-    <mergeCell ref="T406:T415"/>
-    <mergeCell ref="U406:U415"/>
-    <mergeCell ref="V406:V415"/>
-    <mergeCell ref="W406:W415"/>
-    <mergeCell ref="X406:X415"/>
-    <mergeCell ref="Y406:Y415"/>
-    <mergeCell ref="Z406:Z415"/>
-    <mergeCell ref="AA406:AA415"/>
-    <mergeCell ref="T416:T425"/>
-    <mergeCell ref="U416:U425"/>
-    <mergeCell ref="V416:V425"/>
-    <mergeCell ref="W416:W425"/>
-    <mergeCell ref="X416:X425"/>
-    <mergeCell ref="Y416:Y425"/>
-    <mergeCell ref="Z416:Z425"/>
-    <mergeCell ref="AA416:AA425"/>
-    <mergeCell ref="AB416:AB435"/>
-    <mergeCell ref="T426:T435"/>
-    <mergeCell ref="U426:U435"/>
-    <mergeCell ref="V426:V435"/>
-    <mergeCell ref="W426:W435"/>
-    <mergeCell ref="X426:X435"/>
-    <mergeCell ref="Y426:Y435"/>
-    <mergeCell ref="Z426:Z435"/>
-    <mergeCell ref="AA426:AA435"/>
-    <mergeCell ref="K436:S436"/>
-    <mergeCell ref="K438:K447"/>
-    <mergeCell ref="L438:L447"/>
-    <mergeCell ref="M438:M447"/>
-    <mergeCell ref="N438:N447"/>
-    <mergeCell ref="O438:O447"/>
-    <mergeCell ref="P438:P447"/>
-    <mergeCell ref="Q438:Q447"/>
-    <mergeCell ref="R438:R447"/>
-    <mergeCell ref="S438:S457"/>
-    <mergeCell ref="K448:K457"/>
-    <mergeCell ref="L448:L457"/>
-    <mergeCell ref="M448:M457"/>
-    <mergeCell ref="N448:N457"/>
-    <mergeCell ref="O448:O457"/>
-    <mergeCell ref="P448:P457"/>
-    <mergeCell ref="Q448:Q457"/>
-    <mergeCell ref="R448:R457"/>
-    <mergeCell ref="K458:K467"/>
-    <mergeCell ref="L458:L467"/>
-    <mergeCell ref="M458:M467"/>
-    <mergeCell ref="N458:N467"/>
-    <mergeCell ref="O458:O467"/>
-    <mergeCell ref="P458:P467"/>
-    <mergeCell ref="Q458:Q467"/>
-    <mergeCell ref="R458:R467"/>
-    <mergeCell ref="S458:S477"/>
-    <mergeCell ref="K468:K477"/>
-    <mergeCell ref="L468:L477"/>
-    <mergeCell ref="M468:M477"/>
-    <mergeCell ref="N468:N477"/>
-    <mergeCell ref="O468:O477"/>
-    <mergeCell ref="P468:P477"/>
-    <mergeCell ref="Q468:Q477"/>
-    <mergeCell ref="R468:R477"/>
-    <mergeCell ref="K478:K487"/>
-    <mergeCell ref="L478:L487"/>
-    <mergeCell ref="M478:M487"/>
-    <mergeCell ref="N478:N487"/>
-    <mergeCell ref="O478:O487"/>
-    <mergeCell ref="P478:P487"/>
-    <mergeCell ref="Q478:Q487"/>
-    <mergeCell ref="R478:R487"/>
-    <mergeCell ref="S478:S497"/>
-    <mergeCell ref="K488:K497"/>
-    <mergeCell ref="L488:L497"/>
-    <mergeCell ref="M488:M497"/>
-    <mergeCell ref="N488:N497"/>
-    <mergeCell ref="O488:O497"/>
-    <mergeCell ref="P488:P497"/>
-    <mergeCell ref="Q488:Q497"/>
-    <mergeCell ref="R488:R497"/>
-    <mergeCell ref="T436:AB436"/>
-    <mergeCell ref="T438:T447"/>
-    <mergeCell ref="U438:U447"/>
-    <mergeCell ref="V438:V447"/>
-    <mergeCell ref="W438:W447"/>
-    <mergeCell ref="X438:X447"/>
-    <mergeCell ref="Y438:Y447"/>
-    <mergeCell ref="Z438:Z447"/>
-    <mergeCell ref="AA438:AA447"/>
-    <mergeCell ref="AB438:AB457"/>
-    <mergeCell ref="T448:T457"/>
-    <mergeCell ref="U448:U457"/>
-    <mergeCell ref="V448:V457"/>
-    <mergeCell ref="W448:W457"/>
-    <mergeCell ref="X448:X457"/>
-    <mergeCell ref="Y448:Y457"/>
-    <mergeCell ref="Z448:Z457"/>
-    <mergeCell ref="AA448:AA457"/>
-    <mergeCell ref="T458:T467"/>
-    <mergeCell ref="U458:U467"/>
-    <mergeCell ref="V458:V467"/>
-    <mergeCell ref="W458:W467"/>
-    <mergeCell ref="X458:X467"/>
-    <mergeCell ref="Y458:Y467"/>
-    <mergeCell ref="Z458:Z467"/>
-    <mergeCell ref="AA458:AA467"/>
-    <mergeCell ref="AB458:AB477"/>
-    <mergeCell ref="T468:T477"/>
-    <mergeCell ref="U468:U477"/>
-    <mergeCell ref="V468:V477"/>
-    <mergeCell ref="W468:W477"/>
-    <mergeCell ref="X468:X477"/>
-    <mergeCell ref="Y468:Y477"/>
-    <mergeCell ref="Z468:Z477"/>
-    <mergeCell ref="AA468:AA477"/>
-    <mergeCell ref="T478:T487"/>
-    <mergeCell ref="U478:U487"/>
-    <mergeCell ref="V478:V487"/>
-    <mergeCell ref="W478:W487"/>
-    <mergeCell ref="X478:X487"/>
-    <mergeCell ref="Y478:Y487"/>
-    <mergeCell ref="Z478:Z487"/>
-    <mergeCell ref="AA478:AA487"/>
-    <mergeCell ref="AB478:AB497"/>
-    <mergeCell ref="T488:T497"/>
-    <mergeCell ref="U488:U497"/>
-    <mergeCell ref="V488:V497"/>
-    <mergeCell ref="W488:W497"/>
-    <mergeCell ref="X488:X497"/>
-    <mergeCell ref="Y488:Y497"/>
-    <mergeCell ref="Z488:Z497"/>
-    <mergeCell ref="AA488:AA497"/>
-    <mergeCell ref="K498:S498"/>
-    <mergeCell ref="K500:K509"/>
-    <mergeCell ref="L500:L509"/>
-    <mergeCell ref="M500:M509"/>
-    <mergeCell ref="N500:N509"/>
-    <mergeCell ref="O500:O509"/>
-    <mergeCell ref="P500:P509"/>
-    <mergeCell ref="Q500:Q509"/>
-    <mergeCell ref="R500:R509"/>
-    <mergeCell ref="S500:S519"/>
-    <mergeCell ref="K510:K519"/>
-    <mergeCell ref="L510:L519"/>
-    <mergeCell ref="M510:M519"/>
-    <mergeCell ref="N510:N519"/>
-    <mergeCell ref="O510:O519"/>
-    <mergeCell ref="P510:P519"/>
-    <mergeCell ref="Q510:Q519"/>
-    <mergeCell ref="R510:R519"/>
-    <mergeCell ref="K520:K529"/>
-    <mergeCell ref="L520:L529"/>
-    <mergeCell ref="M520:M529"/>
-    <mergeCell ref="N520:N529"/>
-    <mergeCell ref="O520:O529"/>
-    <mergeCell ref="P520:P529"/>
-    <mergeCell ref="Q520:Q529"/>
-    <mergeCell ref="R520:R529"/>
-    <mergeCell ref="S520:S539"/>
-    <mergeCell ref="K530:K539"/>
-    <mergeCell ref="L530:L539"/>
-    <mergeCell ref="M530:M539"/>
-    <mergeCell ref="N530:N539"/>
-    <mergeCell ref="O530:O539"/>
-    <mergeCell ref="P530:P539"/>
-    <mergeCell ref="Q530:Q539"/>
-    <mergeCell ref="R530:R539"/>
-    <mergeCell ref="K540:K549"/>
-    <mergeCell ref="L540:L549"/>
-    <mergeCell ref="M540:M549"/>
-    <mergeCell ref="N540:N549"/>
-    <mergeCell ref="O540:O549"/>
-    <mergeCell ref="P540:P549"/>
-    <mergeCell ref="Q540:Q549"/>
-    <mergeCell ref="R540:R549"/>
-    <mergeCell ref="S540:S559"/>
-    <mergeCell ref="K550:K559"/>
-    <mergeCell ref="L550:L559"/>
-    <mergeCell ref="M550:M559"/>
-    <mergeCell ref="N550:N559"/>
-    <mergeCell ref="O550:O559"/>
-    <mergeCell ref="P550:P559"/>
-    <mergeCell ref="Q550:Q559"/>
-    <mergeCell ref="R550:R559"/>
-    <mergeCell ref="T498:AB498"/>
-    <mergeCell ref="T500:T509"/>
-    <mergeCell ref="U500:U509"/>
-    <mergeCell ref="V500:V509"/>
-    <mergeCell ref="W500:W509"/>
-    <mergeCell ref="X500:X509"/>
-    <mergeCell ref="Y500:Y509"/>
-    <mergeCell ref="Z500:Z509"/>
-    <mergeCell ref="AA500:AA509"/>
-    <mergeCell ref="AB500:AB519"/>
-    <mergeCell ref="T510:T519"/>
-    <mergeCell ref="U510:U519"/>
-    <mergeCell ref="V510:V519"/>
-    <mergeCell ref="W510:W519"/>
-    <mergeCell ref="X510:X519"/>
-    <mergeCell ref="Y510:Y519"/>
-    <mergeCell ref="Z510:Z519"/>
-    <mergeCell ref="AA510:AA519"/>
-    <mergeCell ref="T520:T529"/>
-    <mergeCell ref="U520:U529"/>
-    <mergeCell ref="V520:V529"/>
-    <mergeCell ref="W520:W529"/>
-    <mergeCell ref="X520:X529"/>
-    <mergeCell ref="Y520:Y529"/>
-    <mergeCell ref="Z520:Z529"/>
-    <mergeCell ref="AA520:AA529"/>
-    <mergeCell ref="AB520:AB539"/>
-    <mergeCell ref="T530:T539"/>
-    <mergeCell ref="U530:U539"/>
-    <mergeCell ref="V530:V539"/>
-    <mergeCell ref="W530:W539"/>
-    <mergeCell ref="X530:X539"/>
-    <mergeCell ref="Y530:Y539"/>
-    <mergeCell ref="Z530:Z539"/>
-    <mergeCell ref="AA530:AA539"/>
-    <mergeCell ref="T540:T549"/>
-    <mergeCell ref="U540:U549"/>
-    <mergeCell ref="V540:V549"/>
-    <mergeCell ref="W540:W549"/>
-    <mergeCell ref="X540:X549"/>
-    <mergeCell ref="Y540:Y549"/>
-    <mergeCell ref="Z540:Z549"/>
-    <mergeCell ref="AA540:AA549"/>
-    <mergeCell ref="AB540:AB559"/>
-    <mergeCell ref="T550:T559"/>
-    <mergeCell ref="U550:U559"/>
-    <mergeCell ref="V550:V559"/>
-    <mergeCell ref="W550:W559"/>
-    <mergeCell ref="X550:X559"/>
-    <mergeCell ref="Y550:Y559"/>
-    <mergeCell ref="Z550:Z559"/>
-    <mergeCell ref="AA550:AA559"/>
-    <mergeCell ref="K560:S560"/>
-    <mergeCell ref="K562:K571"/>
-    <mergeCell ref="L562:L571"/>
-    <mergeCell ref="M562:M571"/>
-    <mergeCell ref="N562:N571"/>
-    <mergeCell ref="O562:O571"/>
-    <mergeCell ref="P562:P571"/>
-    <mergeCell ref="Q562:Q571"/>
-    <mergeCell ref="R562:R571"/>
-    <mergeCell ref="S562:S581"/>
-    <mergeCell ref="K572:K581"/>
-    <mergeCell ref="L572:L581"/>
-    <mergeCell ref="M572:M581"/>
-    <mergeCell ref="N572:N581"/>
-    <mergeCell ref="O572:O581"/>
-    <mergeCell ref="P572:P581"/>
-    <mergeCell ref="Q572:Q581"/>
-    <mergeCell ref="R572:R581"/>
-    <mergeCell ref="K582:K591"/>
-    <mergeCell ref="L582:L591"/>
-    <mergeCell ref="M582:M591"/>
-    <mergeCell ref="N582:N591"/>
-    <mergeCell ref="O582:O591"/>
-    <mergeCell ref="P582:P591"/>
-    <mergeCell ref="Q582:Q591"/>
-    <mergeCell ref="R582:R591"/>
-    <mergeCell ref="S582:S601"/>
-    <mergeCell ref="K592:K601"/>
-    <mergeCell ref="L592:L601"/>
-    <mergeCell ref="M592:M601"/>
-    <mergeCell ref="N592:N601"/>
-    <mergeCell ref="O592:O601"/>
-    <mergeCell ref="P592:P601"/>
-    <mergeCell ref="Q592:Q601"/>
-    <mergeCell ref="R592:R601"/>
-    <mergeCell ref="K602:K611"/>
-    <mergeCell ref="L602:L611"/>
-    <mergeCell ref="M602:M611"/>
-    <mergeCell ref="N602:N611"/>
-    <mergeCell ref="O602:O611"/>
-    <mergeCell ref="P602:P611"/>
-    <mergeCell ref="Q602:Q611"/>
-    <mergeCell ref="R602:R611"/>
-    <mergeCell ref="S602:S621"/>
-    <mergeCell ref="K612:K621"/>
-    <mergeCell ref="L612:L621"/>
-    <mergeCell ref="M612:M621"/>
-    <mergeCell ref="N612:N621"/>
-    <mergeCell ref="O612:O621"/>
-    <mergeCell ref="P612:P621"/>
-    <mergeCell ref="Q612:Q621"/>
-    <mergeCell ref="R612:R621"/>
-    <mergeCell ref="T560:AB560"/>
-    <mergeCell ref="T562:T571"/>
-    <mergeCell ref="U562:U571"/>
-    <mergeCell ref="V562:V571"/>
-    <mergeCell ref="W562:W571"/>
-    <mergeCell ref="X562:X571"/>
-    <mergeCell ref="Y562:Y571"/>
-    <mergeCell ref="Z562:Z571"/>
-    <mergeCell ref="AA562:AA571"/>
-    <mergeCell ref="AB562:AB581"/>
-    <mergeCell ref="T572:T581"/>
-    <mergeCell ref="U572:U581"/>
-    <mergeCell ref="V572:V581"/>
-    <mergeCell ref="W572:W581"/>
-    <mergeCell ref="X572:X581"/>
-    <mergeCell ref="Y572:Y581"/>
-    <mergeCell ref="Z572:Z581"/>
-    <mergeCell ref="AA572:AA581"/>
-    <mergeCell ref="T582:T591"/>
-    <mergeCell ref="U582:U591"/>
-    <mergeCell ref="V582:V591"/>
-    <mergeCell ref="W582:W591"/>
-    <mergeCell ref="X582:X591"/>
-    <mergeCell ref="Y582:Y591"/>
-    <mergeCell ref="Z582:Z591"/>
-    <mergeCell ref="AA582:AA591"/>
-    <mergeCell ref="AB582:AB601"/>
-    <mergeCell ref="T592:T601"/>
-    <mergeCell ref="U592:U601"/>
-    <mergeCell ref="V592:V601"/>
-    <mergeCell ref="W592:W601"/>
-    <mergeCell ref="X592:X601"/>
-    <mergeCell ref="Y592:Y601"/>
-    <mergeCell ref="Z592:Z601"/>
-    <mergeCell ref="AA592:AA601"/>
-    <mergeCell ref="T602:T611"/>
-    <mergeCell ref="U602:U611"/>
-    <mergeCell ref="V602:V611"/>
-    <mergeCell ref="W602:W611"/>
-    <mergeCell ref="X602:X611"/>
-    <mergeCell ref="Y602:Y611"/>
-    <mergeCell ref="Z602:Z611"/>
-    <mergeCell ref="AA602:AA611"/>
-    <mergeCell ref="AB602:AB621"/>
-    <mergeCell ref="T612:T621"/>
-    <mergeCell ref="U612:U621"/>
-    <mergeCell ref="V612:V621"/>
-    <mergeCell ref="W612:W621"/>
-    <mergeCell ref="X612:X621"/>
-    <mergeCell ref="Y612:Y621"/>
-    <mergeCell ref="Z612:Z621"/>
-    <mergeCell ref="AA612:AA621"/>
+    <mergeCell ref="B148:B157"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="D148:D157"/>
+    <mergeCell ref="E148:E157"/>
+    <mergeCell ref="F148:F157"/>
+    <mergeCell ref="G148:G157"/>
+    <mergeCell ref="H148:H157"/>
+    <mergeCell ref="I148:I157"/>
+    <mergeCell ref="J148:J167"/>
+    <mergeCell ref="B158:B167"/>
+    <mergeCell ref="C158:C167"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="E158:E167"/>
+    <mergeCell ref="F158:F167"/>
+    <mergeCell ref="G158:G167"/>
+    <mergeCell ref="H158:H167"/>
+    <mergeCell ref="I158:I167"/>
+    <mergeCell ref="B168:B177"/>
+    <mergeCell ref="C168:C177"/>
+    <mergeCell ref="D168:D177"/>
+    <mergeCell ref="E168:E177"/>
+    <mergeCell ref="F168:F177"/>
+    <mergeCell ref="G168:G177"/>
+    <mergeCell ref="H168:H177"/>
+    <mergeCell ref="I168:I177"/>
+    <mergeCell ref="J168:J187"/>
+    <mergeCell ref="B178:B187"/>
+    <mergeCell ref="C178:C187"/>
+    <mergeCell ref="D178:D187"/>
+    <mergeCell ref="E178:E187"/>
+    <mergeCell ref="F178:F187"/>
+    <mergeCell ref="G178:G187"/>
+    <mergeCell ref="H178:H187"/>
+    <mergeCell ref="I178:I187"/>
+    <mergeCell ref="B188:J188"/>
+    <mergeCell ref="B190:B199"/>
+    <mergeCell ref="C190:C199"/>
+    <mergeCell ref="D190:D199"/>
+    <mergeCell ref="E190:E199"/>
+    <mergeCell ref="F190:F199"/>
+    <mergeCell ref="G190:G199"/>
+    <mergeCell ref="H190:H199"/>
+    <mergeCell ref="I190:I199"/>
+    <mergeCell ref="J190:J209"/>
+    <mergeCell ref="B200:B209"/>
+    <mergeCell ref="C200:C209"/>
+    <mergeCell ref="D200:D209"/>
+    <mergeCell ref="E200:E209"/>
+    <mergeCell ref="F200:F209"/>
+    <mergeCell ref="G200:G209"/>
+    <mergeCell ref="H200:H209"/>
+    <mergeCell ref="I200:I209"/>
+    <mergeCell ref="B210:B219"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="E210:E219"/>
+    <mergeCell ref="F210:F219"/>
+    <mergeCell ref="G210:G219"/>
+    <mergeCell ref="H210:H219"/>
+    <mergeCell ref="I210:I219"/>
+    <mergeCell ref="J210:J229"/>
+    <mergeCell ref="B220:B229"/>
+    <mergeCell ref="C220:C229"/>
+    <mergeCell ref="D220:D229"/>
+    <mergeCell ref="E220:E229"/>
+    <mergeCell ref="F220:F229"/>
+    <mergeCell ref="G220:G229"/>
+    <mergeCell ref="H220:H229"/>
+    <mergeCell ref="I220:I229"/>
+    <mergeCell ref="B230:B239"/>
+    <mergeCell ref="C230:C239"/>
+    <mergeCell ref="D230:D239"/>
+    <mergeCell ref="E230:E239"/>
+    <mergeCell ref="F230:F239"/>
+    <mergeCell ref="G230:G239"/>
+    <mergeCell ref="H230:H239"/>
+    <mergeCell ref="I230:I239"/>
+    <mergeCell ref="J230:J249"/>
+    <mergeCell ref="B240:B249"/>
+    <mergeCell ref="C240:C249"/>
+    <mergeCell ref="D240:D249"/>
+    <mergeCell ref="E240:E249"/>
+    <mergeCell ref="F240:F249"/>
+    <mergeCell ref="G240:G249"/>
+    <mergeCell ref="H240:H249"/>
+    <mergeCell ref="I240:I249"/>
+    <mergeCell ref="B250:J250"/>
+    <mergeCell ref="B252:B261"/>
+    <mergeCell ref="C252:C261"/>
+    <mergeCell ref="D252:D261"/>
+    <mergeCell ref="E252:E261"/>
+    <mergeCell ref="F252:F261"/>
+    <mergeCell ref="G252:G261"/>
+    <mergeCell ref="H252:H261"/>
+    <mergeCell ref="I252:I261"/>
+    <mergeCell ref="J252:J271"/>
+    <mergeCell ref="B262:B271"/>
+    <mergeCell ref="C262:C271"/>
+    <mergeCell ref="D262:D271"/>
+    <mergeCell ref="E262:E271"/>
+    <mergeCell ref="F262:F271"/>
+    <mergeCell ref="G262:G271"/>
+    <mergeCell ref="H262:H271"/>
+    <mergeCell ref="I262:I271"/>
+    <mergeCell ref="B272:B281"/>
+    <mergeCell ref="C272:C281"/>
+    <mergeCell ref="D272:D281"/>
+    <mergeCell ref="E272:E281"/>
+    <mergeCell ref="F272:F281"/>
+    <mergeCell ref="G272:G281"/>
+    <mergeCell ref="H272:H281"/>
+    <mergeCell ref="I272:I281"/>
+    <mergeCell ref="J272:J291"/>
+    <mergeCell ref="B282:B291"/>
+    <mergeCell ref="C282:C291"/>
+    <mergeCell ref="D282:D291"/>
+    <mergeCell ref="E282:E291"/>
+    <mergeCell ref="F282:F291"/>
+    <mergeCell ref="G282:G291"/>
+    <mergeCell ref="H282:H291"/>
+    <mergeCell ref="I282:I291"/>
+    <mergeCell ref="B292:B301"/>
+    <mergeCell ref="C292:C301"/>
+    <mergeCell ref="D292:D301"/>
+    <mergeCell ref="E292:E301"/>
+    <mergeCell ref="F292:F301"/>
+    <mergeCell ref="G292:G301"/>
+    <mergeCell ref="H292:H301"/>
+    <mergeCell ref="I292:I301"/>
+    <mergeCell ref="J292:J311"/>
+    <mergeCell ref="B302:B311"/>
+    <mergeCell ref="C302:C311"/>
+    <mergeCell ref="D302:D311"/>
+    <mergeCell ref="E302:E311"/>
+    <mergeCell ref="F302:F311"/>
+    <mergeCell ref="G302:G311"/>
+    <mergeCell ref="H302:H311"/>
+    <mergeCell ref="I302:I311"/>
+    <mergeCell ref="B312:J312"/>
+    <mergeCell ref="B314:B323"/>
+    <mergeCell ref="C314:C323"/>
+    <mergeCell ref="D314:D323"/>
+    <mergeCell ref="E314:E323"/>
+    <mergeCell ref="F314:F323"/>
+    <mergeCell ref="G314:G323"/>
+    <mergeCell ref="H314:H323"/>
+    <mergeCell ref="I314:I323"/>
+    <mergeCell ref="J314:J333"/>
+    <mergeCell ref="B324:B333"/>
+    <mergeCell ref="C324:C333"/>
+    <mergeCell ref="D324:D333"/>
+    <mergeCell ref="E324:E333"/>
+    <mergeCell ref="F324:F333"/>
+    <mergeCell ref="G324:G333"/>
+    <mergeCell ref="H324:H333"/>
+    <mergeCell ref="I324:I333"/>
+    <mergeCell ref="B334:B343"/>
+    <mergeCell ref="C334:C343"/>
+    <mergeCell ref="D334:D343"/>
+    <mergeCell ref="E334:E343"/>
+    <mergeCell ref="F334:F343"/>
+    <mergeCell ref="G334:G343"/>
+    <mergeCell ref="H334:H343"/>
+    <mergeCell ref="I334:I343"/>
+    <mergeCell ref="J334:J353"/>
+    <mergeCell ref="B344:B353"/>
+    <mergeCell ref="C344:C353"/>
+    <mergeCell ref="D344:D353"/>
+    <mergeCell ref="E344:E353"/>
+    <mergeCell ref="F344:F353"/>
+    <mergeCell ref="G344:G353"/>
+    <mergeCell ref="H344:H353"/>
+    <mergeCell ref="I344:I353"/>
+    <mergeCell ref="B354:B363"/>
+    <mergeCell ref="C354:C363"/>
+    <mergeCell ref="D354:D363"/>
+    <mergeCell ref="E354:E363"/>
+    <mergeCell ref="F354:F363"/>
+    <mergeCell ref="G354:G363"/>
+    <mergeCell ref="H354:H363"/>
+    <mergeCell ref="I354:I363"/>
+    <mergeCell ref="J354:J373"/>
+    <mergeCell ref="B364:B373"/>
+    <mergeCell ref="C364:C373"/>
+    <mergeCell ref="D364:D373"/>
+    <mergeCell ref="E364:E373"/>
+    <mergeCell ref="F364:F373"/>
+    <mergeCell ref="G364:G373"/>
+    <mergeCell ref="H364:H373"/>
+    <mergeCell ref="I364:I373"/>
+    <mergeCell ref="B374:J374"/>
+    <mergeCell ref="B376:B385"/>
+    <mergeCell ref="C376:C385"/>
+    <mergeCell ref="D376:D385"/>
+    <mergeCell ref="E376:E385"/>
+    <mergeCell ref="F376:F385"/>
+    <mergeCell ref="G376:G385"/>
+    <mergeCell ref="H376:H385"/>
+    <mergeCell ref="I376:I385"/>
+    <mergeCell ref="J376:J395"/>
+    <mergeCell ref="B386:B395"/>
+    <mergeCell ref="C386:C395"/>
+    <mergeCell ref="D386:D395"/>
+    <mergeCell ref="E386:E395"/>
+    <mergeCell ref="F386:F395"/>
+    <mergeCell ref="G386:G395"/>
+    <mergeCell ref="H386:H395"/>
+    <mergeCell ref="I386:I395"/>
+    <mergeCell ref="B396:B405"/>
+    <mergeCell ref="C396:C405"/>
+    <mergeCell ref="D396:D405"/>
+    <mergeCell ref="E396:E405"/>
+    <mergeCell ref="F396:F405"/>
+    <mergeCell ref="G396:G405"/>
+    <mergeCell ref="H396:H405"/>
+    <mergeCell ref="I396:I405"/>
+    <mergeCell ref="J396:J415"/>
+    <mergeCell ref="B406:B415"/>
+    <mergeCell ref="C406:C415"/>
+    <mergeCell ref="D406:D415"/>
+    <mergeCell ref="E406:E415"/>
+    <mergeCell ref="F406:F415"/>
+    <mergeCell ref="G406:G415"/>
+    <mergeCell ref="H406:H415"/>
+    <mergeCell ref="I406:I415"/>
+    <mergeCell ref="B416:B425"/>
+    <mergeCell ref="C416:C425"/>
+    <mergeCell ref="D416:D425"/>
+    <mergeCell ref="E416:E425"/>
+    <mergeCell ref="F416:F425"/>
+    <mergeCell ref="G416:G425"/>
+    <mergeCell ref="H416:H425"/>
+    <mergeCell ref="I416:I425"/>
+    <mergeCell ref="J416:J435"/>
+    <mergeCell ref="B426:B435"/>
+    <mergeCell ref="C426:C435"/>
+    <mergeCell ref="D426:D435"/>
+    <mergeCell ref="E426:E435"/>
+    <mergeCell ref="F426:F435"/>
+    <mergeCell ref="G426:G435"/>
+    <mergeCell ref="H426:H435"/>
+    <mergeCell ref="I426:I435"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B438:B447"/>
+    <mergeCell ref="C438:C447"/>
+    <mergeCell ref="D438:D447"/>
+    <mergeCell ref="E438:E447"/>
+    <mergeCell ref="F438:F447"/>
+    <mergeCell ref="G438:G447"/>
+    <mergeCell ref="H438:H447"/>
+    <mergeCell ref="I438:I447"/>
+    <mergeCell ref="J438:J457"/>
+    <mergeCell ref="B448:B457"/>
+    <mergeCell ref="C448:C457"/>
+    <mergeCell ref="D448:D457"/>
+    <mergeCell ref="E448:E457"/>
+    <mergeCell ref="F448:F457"/>
+    <mergeCell ref="G448:G457"/>
+    <mergeCell ref="H448:H457"/>
+    <mergeCell ref="I448:I457"/>
+    <mergeCell ref="B458:B467"/>
+    <mergeCell ref="C458:C467"/>
+    <mergeCell ref="D458:D467"/>
+    <mergeCell ref="E458:E467"/>
+    <mergeCell ref="F458:F467"/>
+    <mergeCell ref="G458:G467"/>
+    <mergeCell ref="H458:H467"/>
+    <mergeCell ref="I458:I467"/>
+    <mergeCell ref="J458:J477"/>
+    <mergeCell ref="B468:B477"/>
+    <mergeCell ref="C468:C477"/>
+    <mergeCell ref="D468:D477"/>
+    <mergeCell ref="E468:E477"/>
+    <mergeCell ref="F468:F477"/>
+    <mergeCell ref="G468:G477"/>
+    <mergeCell ref="H468:H477"/>
+    <mergeCell ref="I468:I477"/>
+    <mergeCell ref="B478:B487"/>
+    <mergeCell ref="C478:C487"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="E478:E487"/>
+    <mergeCell ref="F478:F487"/>
+    <mergeCell ref="G478:G487"/>
+    <mergeCell ref="H478:H487"/>
+    <mergeCell ref="I478:I487"/>
+    <mergeCell ref="J478:J497"/>
+    <mergeCell ref="B488:B497"/>
+    <mergeCell ref="C488:C497"/>
+    <mergeCell ref="D488:D497"/>
+    <mergeCell ref="E488:E497"/>
+    <mergeCell ref="F488:F497"/>
+    <mergeCell ref="G488:G497"/>
+    <mergeCell ref="H488:H497"/>
+    <mergeCell ref="I488:I497"/>
+    <mergeCell ref="B498:J498"/>
+    <mergeCell ref="B500:B509"/>
+    <mergeCell ref="C500:C509"/>
+    <mergeCell ref="D500:D509"/>
+    <mergeCell ref="E500:E509"/>
+    <mergeCell ref="F500:F509"/>
+    <mergeCell ref="G500:G509"/>
+    <mergeCell ref="H500:H509"/>
+    <mergeCell ref="I500:I509"/>
+    <mergeCell ref="J500:J519"/>
+    <mergeCell ref="B510:B519"/>
+    <mergeCell ref="C510:C519"/>
+    <mergeCell ref="D510:D519"/>
+    <mergeCell ref="E510:E519"/>
+    <mergeCell ref="F510:F519"/>
+    <mergeCell ref="G510:G519"/>
+    <mergeCell ref="H510:H519"/>
+    <mergeCell ref="I510:I519"/>
+    <mergeCell ref="B520:B529"/>
+    <mergeCell ref="C520:C529"/>
+    <mergeCell ref="D520:D529"/>
+    <mergeCell ref="E520:E529"/>
+    <mergeCell ref="F520:F529"/>
+    <mergeCell ref="G520:G529"/>
+    <mergeCell ref="H520:H529"/>
+    <mergeCell ref="I520:I529"/>
+    <mergeCell ref="J520:J539"/>
+    <mergeCell ref="B530:B539"/>
+    <mergeCell ref="C530:C539"/>
+    <mergeCell ref="D530:D539"/>
+    <mergeCell ref="E530:E539"/>
+    <mergeCell ref="F530:F539"/>
+    <mergeCell ref="G530:G539"/>
+    <mergeCell ref="H530:H539"/>
+    <mergeCell ref="I530:I539"/>
+    <mergeCell ref="B540:B549"/>
+    <mergeCell ref="C540:C549"/>
+    <mergeCell ref="D540:D549"/>
+    <mergeCell ref="E540:E549"/>
+    <mergeCell ref="F540:F549"/>
+    <mergeCell ref="G540:G549"/>
+    <mergeCell ref="H540:H549"/>
+    <mergeCell ref="I540:I549"/>
+    <mergeCell ref="J540:J559"/>
+    <mergeCell ref="B550:B559"/>
+    <mergeCell ref="C550:C559"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="E550:E559"/>
+    <mergeCell ref="F550:F559"/>
+    <mergeCell ref="G550:G559"/>
+    <mergeCell ref="H550:H559"/>
+    <mergeCell ref="I550:I559"/>
+    <mergeCell ref="B560:J560"/>
+    <mergeCell ref="B562:B571"/>
+    <mergeCell ref="C562:C571"/>
+    <mergeCell ref="D562:D571"/>
+    <mergeCell ref="E562:E571"/>
+    <mergeCell ref="F562:F571"/>
+    <mergeCell ref="G562:G571"/>
+    <mergeCell ref="H562:H571"/>
+    <mergeCell ref="I562:I571"/>
+    <mergeCell ref="J562:J581"/>
+    <mergeCell ref="B572:B581"/>
+    <mergeCell ref="C572:C581"/>
+    <mergeCell ref="D572:D581"/>
+    <mergeCell ref="E572:E581"/>
+    <mergeCell ref="F572:F581"/>
+    <mergeCell ref="G572:G581"/>
+    <mergeCell ref="H572:H581"/>
+    <mergeCell ref="I572:I581"/>
+    <mergeCell ref="B582:B591"/>
+    <mergeCell ref="C582:C591"/>
+    <mergeCell ref="D582:D591"/>
+    <mergeCell ref="E582:E591"/>
+    <mergeCell ref="F582:F591"/>
+    <mergeCell ref="G582:G591"/>
+    <mergeCell ref="H582:H591"/>
+    <mergeCell ref="I582:I591"/>
+    <mergeCell ref="J582:J601"/>
+    <mergeCell ref="B592:B601"/>
+    <mergeCell ref="C592:C601"/>
+    <mergeCell ref="D592:D601"/>
+    <mergeCell ref="E592:E601"/>
+    <mergeCell ref="F592:F601"/>
+    <mergeCell ref="G592:G601"/>
+    <mergeCell ref="H592:H601"/>
+    <mergeCell ref="I592:I601"/>
+    <mergeCell ref="B602:B611"/>
+    <mergeCell ref="C602:C611"/>
+    <mergeCell ref="D602:D611"/>
+    <mergeCell ref="E602:E611"/>
+    <mergeCell ref="F602:F611"/>
+    <mergeCell ref="G602:G611"/>
+    <mergeCell ref="H602:H611"/>
+    <mergeCell ref="I602:I611"/>
+    <mergeCell ref="J602:J621"/>
+    <mergeCell ref="B612:B621"/>
+    <mergeCell ref="C612:C621"/>
+    <mergeCell ref="D612:D621"/>
+    <mergeCell ref="E612:E621"/>
+    <mergeCell ref="F612:F621"/>
+    <mergeCell ref="G612:G621"/>
+    <mergeCell ref="H612:H621"/>
+    <mergeCell ref="I612:I621"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
